--- a/Oops.xlsx
+++ b/Oops.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Access Modifiers In C#</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>Explicity define for others</t>
+  </si>
+  <si>
+    <t>Abstract Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtual Class </t>
+  </si>
+  <si>
+    <t>abstract class doesnt provide the implementations and forces derived class to override the method</t>
+  </si>
+  <si>
+    <t>virtual class has implementation and provide derived class with option to override it</t>
   </si>
 </sst>
 </file>
@@ -482,16 +494,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E23"/>
+  <dimension ref="A3:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
@@ -637,6 +649,22 @@
         <v>18</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
